--- a/reports/2026-01-22.xlsx
+++ b/reports/2026-01-22.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-22 06:32 UTC</t>
+          <t>2026-01-22 21:46 UTC</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -640,21 +640,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$337.49M</t>
+          <t>$315.69M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$2.23M</t>
+          <t>$2.12M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>56.44</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -666,7 +666,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -676,43 +676,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>0GUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>0G</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$1.95</t>
+          <t>$0.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$651.45M</t>
+          <t>$170.44M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$1.63M</t>
+          <t>$2.66M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -722,31 +722,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>MINAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.84</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$122.69M</t>
+          <t>$111.48M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$1.30M</t>
+          <t>$1.89M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>49.93</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>62.17</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -768,45 +768,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARUSDT</t>
+          <t>SANDUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$3.63</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$237.24M</t>
+          <t>$416.49M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$1.32M</t>
+          <t>$3.62M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>40.87</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>50.32</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>overextended</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -814,22 +818,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>PENDLEUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Pendle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$2.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$119.01M</t>
+          <t>$358.60M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -838,7 +842,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>47.5</v>
+        <v>39.43</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
@@ -847,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -860,40 +864,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAXGUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$4842.01</t>
+          <t>$3.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$1.90B</t>
+          <t>$1.97B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$21.66M</t>
+          <t>$4.93M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -906,40 +910,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XAUTUSDT</t>
+          <t>IPUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$4828.07</t>
+          <t>$2.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$2.12B</t>
+          <t>$851.19M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$7.87M</t>
+          <t>$2.42M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -952,31 +956,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$3.62</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$1.98B</t>
+          <t>$373.77M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$7.73M</t>
+          <t>$1.52M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>37.5</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -985,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -998,31 +1002,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PUMPUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pump.fun</t>
+          <t>Merlin Chain</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$928.76M</t>
+          <t>$149.94M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$4.79M</t>
+          <t>$1.47M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>36.89</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1031,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.44</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1044,31 +1048,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IPUSDT</t>
+          <t>PEPEUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$2.58</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$898.71M</t>
+          <t>$2.05B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$2.30M</t>
+          <t>$14.73M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -1077,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1187,37 +1191,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$2.60</t>
+          <t>$2.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$433.94M</t>
+          <t>$708.30M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$18.19M</t>
+          <t>$2.26M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62.18</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
@@ -1233,37 +1237,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DUSKUSDT</t>
+          <t>SANDUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dusk</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.21</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$102.12M</t>
+          <t>$416.49M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$7.07M</t>
+          <t>$3.62M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>57.64</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>75.48</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
@@ -1279,37 +1283,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>ROSEUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>Oasis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$46.54</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$920.85M</t>
+          <t>$147.73M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$4.95M</t>
+          <t>$3.44M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>48.21</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>44.04</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
@@ -1325,34 +1329,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROSEUSDT</t>
+          <t>XAUTUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Oasis</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$4924.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$148.45M</t>
+          <t>$2.16B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$4.39M</t>
+          <t>$4.58M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>47.17</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>62.83</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1361,7 +1365,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>34.52</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1371,34 +1375,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>RIVERUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>River</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$60.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$441.13M</t>
+          <t>$1.17B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$2.93M</t>
+          <t>$4.05M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>45.26</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1417,34 +1421,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>PAXGUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$4940.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$376.52M</t>
+          <t>$1.98B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.81M</t>
+          <t>$15.32M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>34.9</v>
+        <v>38.88</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.26</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1453,7 +1457,7 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>99.36</v>
+        <v>34.26</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -1463,43 +1467,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>MINAUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$337.49M</t>
+          <t>$111.48M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$2.23M</t>
+          <t>$1.89M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>33.94</v>
+        <v>38.18</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K8" t="n">
-        <v>92.95</v>
+        <v>14.7</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -1509,31 +1513,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.84</t>
+          <t>$2.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$122.69M</t>
+          <t>$416.57M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.30M</t>
+          <t>$12.70M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1542,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
         <v>100</v>
@@ -1555,43 +1559,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$1.90</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$633.19M</t>
+          <t>$315.69M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.95M</t>
+          <t>$2.12M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>32.26</v>
+        <v>31.48</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="J10" t="n">
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>81.75</v>
+        <v>54.94</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1601,43 +1605,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>0GUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alchemy Pay</t>
+          <t>0G</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$0.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$123.52M</t>
+          <t>$170.44M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.56M</t>
+          <t>$2.66M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>27.67</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>51.12</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1744,31 +1748,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$2.60</t>
+          <t>$2.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$433.94M</t>
+          <t>$708.30M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$18.19M</t>
+          <t>$2.26M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -1780,7 +1784,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -1790,31 +1794,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>SANDUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$46.54</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$920.85M</t>
+          <t>$416.49M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$4.95M</t>
+          <t>$3.62M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>63.5</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -1823,10 +1827,10 @@
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -1836,27 +1840,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>RIVERUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>River</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$60.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$441.13M</t>
+          <t>$1.17B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$2.93M</t>
+          <t>$4.05M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1882,43 +1886,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>ROSEUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Oasis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$337.49M</t>
+          <t>$147.73M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$2.23M</t>
+          <t>$3.44M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>52</v>
+        <v>47.81</v>
       </c>
       <c r="H5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1928,40 +1932,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ULTIMAUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ultima</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$6120.04</t>
+          <t>$2.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$229.13M</t>
+          <t>$416.57M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$1.75M</t>
+          <t>$12.70M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1974,34 +1978,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>PAXGUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Verge</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$4940.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$123.06M</t>
+          <t>$1.98B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.42M</t>
+          <t>$15.32M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I7" t="n">
         <v>20</v>
@@ -2020,37 +2024,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PAXGUSDT</t>
+          <t>XAUTUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$4842.01</t>
+          <t>$4924.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$1.90B</t>
+          <t>$2.16B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$21.66M</t>
+          <t>$4.58M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
         <v>40</v>
@@ -2066,40 +2070,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUTUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$4828.07</t>
+          <t>$0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$2.12B</t>
+          <t>$511.93M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$7.87M</t>
+          <t>$12.41M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2112,43 +2116,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$79.09</t>
+          <t>$0.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$953.98M</t>
+          <t>$315.69M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.10M</t>
+          <t>$2.12M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>37.66</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>30.79</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -2158,40 +2162,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>RENDERUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$1.90</t>
+          <t>$2.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$633.19M</t>
+          <t>$1.05B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.95M</t>
+          <t>$1.67M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>42.5</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
